--- a/download_file/마음손거래내역_20230712053931하늘빛요양원.xlsx
+++ b/download_file/마음손거래내역_20230712053931하늘빛요양원.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D34AB22-9066-4CA5-8451-409CBB2BEDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E8897C-632E-448B-BFE2-A702BA2360D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1395" windowWidth="24105" windowHeight="11925"/>
+    <workbookView xWindow="4890" yWindow="4890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음손거래내역_20230712053931하늘빛요양원" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>구분</t>
   </si>
@@ -58,82 +58,34 @@
     <t>계좌명</t>
   </si>
   <si>
-    <t>지출</t>
-  </si>
-  <si>
     <t>정상</t>
   </si>
   <si>
     <t>일반사업</t>
   </si>
   <si>
-    <t>생계비</t>
-  </si>
-  <si>
-    <t>식대</t>
-  </si>
-  <si>
     <t>수익사업</t>
   </si>
   <si>
-    <t>식재료비수입</t>
-  </si>
-  <si>
-    <t>2023-04-01-276</t>
-  </si>
-  <si>
-    <t>운영비(지출)[91350101222368]</t>
-  </si>
-  <si>
-    <t>수용비 및 수수료</t>
-  </si>
-  <si>
-    <t>2분기　정기소독</t>
-  </si>
-  <si>
-    <t>장기요양급여수입</t>
-  </si>
-  <si>
-    <t>2023-04-05-106</t>
-  </si>
-  <si>
-    <t>의료비</t>
-  </si>
-  <si>
-    <t>3월　원외처방전</t>
-  </si>
-  <si>
     <t>본인부담금수입</t>
   </si>
   <si>
-    <t>2023-04-05-173</t>
-  </si>
-  <si>
     <t>수입</t>
   </si>
   <si>
     <t>본인부담금</t>
   </si>
   <si>
-    <t>2023-04-25-229</t>
+    <t>2023-07-25-229</t>
   </si>
   <si>
     <t>본부금(입금)[91350101222371]</t>
-  </si>
-  <si>
-    <t>2023-04-25-230</t>
-  </si>
-  <si>
-    <t>기타비급여수입</t>
-  </si>
-  <si>
-    <t>2023-04-25-231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1161,10 +1113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1219,224 +1173,38 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="4">
-        <v>45017</v>
+        <v>45132</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5">
+        <v>141190</v>
+      </c>
+      <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="5">
-        <v>35000</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45021</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>25000</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45021</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45041</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5">
-        <v>141190</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45041</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5">
-        <v>414000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45041</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1910</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/download_file/마음손거래내역_20230712053931하늘빛요양원.xlsx
+++ b/download_file/마음손거래내역_20230712053931하늘빛요양원.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E8897C-632E-448B-BFE2-A702BA2360D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB5F73-AFE1-42EB-9EAC-55CE825C13B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="4890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음손거래내역_20230712053931하늘빛요양원" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>구분</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>본부금(입금)[91350101222371]</t>
+  </si>
+  <si>
+    <t>식재료비수입</t>
+  </si>
+  <si>
+    <t>2023-07-25-230</t>
+  </si>
+  <si>
+    <t>기타비급여수입</t>
+  </si>
+  <si>
+    <t>2023-07-25-231</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1182,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="4">
-        <v>45132</v>
+        <v>45124</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
@@ -1204,6 +1216,78 @@
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45124</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5">
+        <v>414000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45124</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1910</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
